--- a/data/financial_statements/soci/CMG.xlsx
+++ b/data/financial_statements/soci/CMG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -116,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,144 +592,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>2220000000</v>
+        <v>2220175000</v>
       </c>
       <c r="C2">
-        <v>2213000000</v>
+        <v>2213339000</v>
       </c>
       <c r="D2">
-        <v>2021000000</v>
+        <v>2020539000</v>
       </c>
       <c r="E2">
-        <v>1961000000</v>
+        <v>1960633000</v>
       </c>
       <c r="F2">
-        <v>1952000000</v>
+        <v>1952315000</v>
       </c>
       <c r="G2">
         <v>1892538000</v>
@@ -724,23 +835,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.1373</v>
+        <v>0.1372</v>
       </c>
       <c r="C3">
-        <v>0.1693</v>
+        <v>0.1695</v>
       </c>
       <c r="D3">
-        <v>0.1604</v>
+        <v>0.1602</v>
       </c>
       <c r="E3">
-        <v>0.2197</v>
+        <v>0.2195</v>
       </c>
       <c r="F3">
-        <v>0.2189</v>
+        <v>0.2191</v>
       </c>
       <c r="G3">
         <v>0.3867</v>
@@ -846,23 +957,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1729000000</v>
+        <v>1657629000</v>
       </c>
       <c r="C4">
-        <v>1725000000</v>
+        <v>1655254000</v>
       </c>
       <c r="D4">
-        <v>1673000000</v>
+        <v>1601593000</v>
       </c>
       <c r="E4">
-        <v>1631000000</v>
+        <v>1564615000</v>
       </c>
       <c r="F4">
-        <v>1556000000</v>
+        <v>1492962000</v>
       </c>
       <c r="G4">
         <v>1429656000</v>
@@ -968,23 +1079,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>491000000</v>
+        <v>562546000</v>
       </c>
       <c r="C5">
-        <v>488000000</v>
+        <v>558085200</v>
       </c>
       <c r="D5">
-        <v>347000000</v>
+        <v>418946000</v>
       </c>
       <c r="E5">
-        <v>330000000</v>
+        <v>396017800</v>
       </c>
       <c r="F5">
-        <v>396000000</v>
+        <v>459352900</v>
       </c>
       <c r="G5">
         <v>462882000</v>
@@ -1090,8 +1201,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>140896000</v>
@@ -1106,7 +1217,7 @@
         <v>159777000</v>
       </c>
       <c r="F6">
-        <v>146000000</v>
+        <v>145930000</v>
       </c>
       <c r="G6">
         <v>146044000</v>
@@ -1212,8 +1323,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>336253100</v>
@@ -1334,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I8">
         <v>1000000</v>
@@ -1351,23 +1462,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>-10000000</v>
+        <v>3712000</v>
       </c>
       <c r="C9">
-        <v>1000000</v>
+        <v>10572000</v>
       </c>
       <c r="D9">
-        <v>-10000000</v>
+        <v>-213000</v>
       </c>
       <c r="E9">
-        <v>17000000</v>
+        <v>9263000</v>
       </c>
       <c r="F9">
-        <v>-11000000</v>
+        <v>-126000</v>
       </c>
       <c r="G9">
         <v>851000</v>
@@ -1473,23 +1584,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>340000000</v>
+        <v>339965000</v>
       </c>
       <c r="C10">
-        <v>348000000</v>
+        <v>348170000</v>
       </c>
       <c r="D10">
-        <v>190000000</v>
+        <v>190008000</v>
       </c>
       <c r="E10">
-        <v>168000000</v>
+        <v>167559000</v>
       </c>
       <c r="F10">
-        <v>240000000</v>
+        <v>239554000</v>
       </c>
       <c r="G10">
         <v>246376000</v>
@@ -1595,23 +1706,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>83000000</v>
+        <v>82827000</v>
       </c>
       <c r="C11">
-        <v>88000000</v>
+        <v>88228000</v>
       </c>
       <c r="D11">
-        <v>32000000</v>
+        <v>31714000</v>
       </c>
       <c r="E11">
-        <v>34000000</v>
+        <v>34084000</v>
       </c>
       <c r="F11">
-        <v>35000000</v>
+        <v>35120000</v>
       </c>
       <c r="G11">
         <v>58402000</v>
@@ -1717,8 +1828,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>257138000</v>
@@ -1839,23 +1950,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>257000000</v>
+        <v>257138000</v>
       </c>
       <c r="C13">
-        <v>260000000</v>
+        <v>259942000</v>
       </c>
       <c r="D13">
-        <v>158000000</v>
+        <v>158294000</v>
       </c>
       <c r="E13">
-        <v>133000000</v>
+        <v>133475000</v>
       </c>
       <c r="F13">
-        <v>204000000</v>
+        <v>204434000</v>
       </c>
       <c r="G13">
         <v>187974000</v>
@@ -1961,23 +2072,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>9.199999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="C14">
-        <v>9.25</v>
+        <v>9.32</v>
       </c>
       <c r="D14">
-        <v>5.59</v>
+        <v>5.64</v>
       </c>
       <c r="E14">
-        <v>4.69</v>
+        <v>4.75</v>
       </c>
       <c r="F14">
-        <v>7.18</v>
+        <v>7.26</v>
       </c>
       <c r="G14">
         <v>6.68</v>
@@ -2083,8 +2194,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>9.199999999999999</v>
@@ -2205,23 +2316,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>28000000</v>
+        <v>27773000</v>
       </c>
       <c r="C16">
-        <v>28000000</v>
+        <v>27905000</v>
       </c>
       <c r="D16">
-        <v>28000000</v>
+        <v>28043000</v>
       </c>
       <c r="E16">
-        <v>28000000</v>
+        <v>28132000</v>
       </c>
       <c r="F16">
-        <v>28000000</v>
+        <v>28150000</v>
       </c>
       <c r="G16">
         <v>28134000</v>
@@ -2327,23 +2438,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>28000000</v>
+        <v>27956000</v>
       </c>
       <c r="C17">
-        <v>28000000</v>
+        <v>28092000</v>
       </c>
       <c r="D17">
-        <v>28000000</v>
+        <v>28301000</v>
       </c>
       <c r="E17">
-        <v>28000000</v>
+        <v>28511000</v>
       </c>
       <c r="F17">
-        <v>28000000</v>
+        <v>28475000</v>
       </c>
       <c r="G17">
         <v>28501000</v>
@@ -2449,23 +2560,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>0.2212</v>
+        <v>0.2534</v>
       </c>
       <c r="C18">
-        <v>0.2205</v>
+        <v>0.2521</v>
       </c>
       <c r="D18">
-        <v>0.1717</v>
+        <v>0.2073</v>
       </c>
       <c r="E18">
-        <v>0.1683</v>
+        <v>0.202</v>
       </c>
       <c r="F18">
-        <v>0.2029</v>
+        <v>0.2353</v>
       </c>
       <c r="G18">
         <v>0.2446</v>
@@ -2571,14 +2682,14 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.1515</v>
       </c>
       <c r="C19">
-        <v>0.1526</v>
+        <v>0.1525</v>
       </c>
       <c r="D19">
         <v>0.0941</v>
@@ -2693,11 +2804,11 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.1532</v>
+        <v>0.1531</v>
       </c>
       <c r="C20">
         <v>0.1573</v>
@@ -2706,10 +2817,10 @@
         <v>0.094</v>
       </c>
       <c r="E20">
-        <v>0.0857</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="F20">
-        <v>0.123</v>
+        <v>0.1227</v>
       </c>
       <c r="G20">
         <v>0.1302</v>
@@ -2815,23 +2926,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0.1158</v>
       </c>
       <c r="C21">
-        <v>0.1175</v>
+        <v>0.1174</v>
       </c>
       <c r="D21">
-        <v>0.07820000000000001</v>
+        <v>0.07829999999999999</v>
       </c>
       <c r="E21">
-        <v>0.0678</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="F21">
-        <v>0.1045</v>
+        <v>0.1047</v>
       </c>
       <c r="G21">
         <v>0.0993</v>
@@ -2937,23 +3048,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>422000000</v>
+        <v>407669100</v>
       </c>
       <c r="C22">
-        <v>417000000</v>
+        <v>407331300</v>
       </c>
       <c r="D22">
-        <v>272000000</v>
+        <v>261886100</v>
       </c>
       <c r="E22">
-        <v>256000000</v>
+        <v>224557600</v>
       </c>
       <c r="F22">
-        <v>313000000</v>
+        <v>302870900</v>
       </c>
       <c r="G22">
         <v>307607000</v>
@@ -3059,8 +3170,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>336253100</v>
@@ -3181,8 +3292,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>257138000</v>
@@ -3303,23 +3414,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>257000000</v>
+        <v>257138000</v>
       </c>
       <c r="C25">
-        <v>260000000</v>
+        <v>259942000</v>
       </c>
       <c r="D25">
-        <v>158000000</v>
+        <v>158294000</v>
       </c>
       <c r="E25">
-        <v>133000000</v>
+        <v>133475000</v>
       </c>
       <c r="F25">
-        <v>204000000</v>
+        <v>204434000</v>
       </c>
       <c r="G25">
         <v>187974000</v>
@@ -3425,8 +3536,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>9.258599999999999</v>
@@ -3547,8 +3658,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>9.198</v>
@@ -3669,8 +3780,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>9.258599999999999</v>
@@ -3791,8 +3902,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>9.198</v>
@@ -3913,8 +4024,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>27956000</v>
@@ -4035,23 +4146,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>0.1901</v>
+        <v>0.1836</v>
       </c>
       <c r="C31">
-        <v>0.1884</v>
+        <v>0.184</v>
       </c>
       <c r="D31">
-        <v>0.1346</v>
+        <v>0.1296</v>
       </c>
       <c r="E31">
-        <v>0.1305</v>
+        <v>0.1145</v>
       </c>
       <c r="F31">
-        <v>0.1603</v>
+        <v>0.1551</v>
       </c>
       <c r="G31">
         <v>0.1625</v>
@@ -4157,23 +4268,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>0.1825</v>
+        <v>0.1585</v>
       </c>
       <c r="C32">
-        <v>0.1524</v>
+        <v>0.1296</v>
       </c>
       <c r="D32">
-        <v>0.1645</v>
+        <v>0.14</v>
       </c>
       <c r="E32">
-        <v>0.257</v>
+        <v>0.2236</v>
       </c>
       <c r="F32">
-        <v>0.1642</v>
+        <v>0.1438</v>
       </c>
       <c r="G32">
         <v>0.1357</v>
